--- a/hardware/pi_hat/bom/pi_hat_bom.xlsx
+++ b/hardware/pi_hat/bom/pi_hat_bom.xlsx
@@ -1,29 +1,136 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub Repos\canine_precise_dispenser\hardware\pi_hat\bom\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB1A4F21-D303-4F24-8B65-9A4E8727ADA5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+  <si>
+    <t>Bill of Materials - Precise Dispenser Pi HAT</t>
+  </si>
+  <si>
+    <t>Part</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>PCB</t>
+  </si>
+  <si>
+    <t>A4988 Stepper Motor</t>
+  </si>
+  <si>
+    <t>Capacitor</t>
+  </si>
+  <si>
+    <t>Resistor</t>
+  </si>
+  <si>
+    <t>40 Pin Header</t>
+  </si>
+  <si>
+    <t>Stepper Motor Header</t>
+  </si>
+  <si>
+    <t>2 Pin Screw Terminal</t>
+  </si>
+  <si>
+    <t>3 Pin Screw Terminal</t>
+  </si>
+  <si>
+    <t>A4988 Female Pins</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/HiLetgo-Stepstick-Stepper-Printer-Compatible/dp/B00LOF1CA2/ref=sr_1_24?crid=1H73ID64FI88C&amp;dchild=1&amp;keywords=a4988+stepper+motor+driver&amp;qid=1617929080&amp;sprefix=a4988%2Caps%2C201&amp;sr=8-24</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/w%C3%BCrth-elektronik/691214110002S/11477397</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/w%C3%BCrth-elektronik/691214110003S/11477432</t>
+  </si>
+  <si>
+    <t>https://www.sparkfun.com/products/16581</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/sullins-connector-solutions/PPTC081LFBN-RC/810147</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/harwin-inc/M20-9750446/3727931</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/stackpole-electronics-inc/CF14JT10K0/1741265</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/w%C3%BCrth-elektronik/860240572001/5729254</t>
+  </si>
+  <si>
+    <t>[Add OSHPark Link]</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -46,13 +153,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -330,13 +446,175 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3">
+        <v>28.45</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3">
+        <v>4.6900000000000004</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" s="3">
+        <f>1.1*2</f>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1.35</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" s="3">
+        <f>B11*0.65</f>
+        <v>1.3</v>
+      </c>
+      <c r="D11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="D4" r:id="rId1" xr:uid="{833F4C83-DD1D-417E-AAF3-BA0EAD8871DD}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/hardware/pi_hat/bom/pi_hat_bom.xlsx
+++ b/hardware/pi_hat/bom/pi_hat_bom.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub Repos\canine_precise_dispenser\hardware\pi_hat\bom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB1A4F21-D303-4F24-8B65-9A4E8727ADA5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BFB3131-3E7B-4DAB-8D19-495F65FA7F03}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Bill of Materials - Precise Dispenser Pi HAT</t>
   </si>
@@ -76,30 +76,6 @@
   </si>
   <si>
     <t>A4988 Female Pins</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/HiLetgo-Stepstick-Stepper-Printer-Compatible/dp/B00LOF1CA2/ref=sr_1_24?crid=1H73ID64FI88C&amp;dchild=1&amp;keywords=a4988+stepper+motor+driver&amp;qid=1617929080&amp;sprefix=a4988%2Caps%2C201&amp;sr=8-24</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/en/products/detail/w%C3%BCrth-elektronik/691214110002S/11477397</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/en/products/detail/w%C3%BCrth-elektronik/691214110003S/11477432</t>
-  </si>
-  <si>
-    <t>https://www.sparkfun.com/products/16581</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/en/products/detail/sullins-connector-solutions/PPTC081LFBN-RC/810147</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/en/products/detail/harwin-inc/M20-9750446/3727931</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/en/products/detail/stackpole-electronics-inc/CF14JT10K0/1741265</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/en/products/detail/w%C3%BCrth-elektronik/860240572001/5729254</t>
   </si>
   <si>
     <t>[Add OSHPark Link]</t>
@@ -112,7 +88,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -134,6 +110,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -158,13 +140,14 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -449,8 +432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -459,153 +442,161 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="3">
         <v>3</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="4">
         <v>28.45</v>
       </c>
-      <c r="D3" t="s">
-        <v>22</v>
+      <c r="D3" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="3">
         <v>1</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="4">
         <v>4.6900000000000004</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>14</v>
+      <c r="D4" s="1" t="str">
+        <f>HYPERLINK("https://www.amazon.com/HiLetgo-Stepstick-Stepper-Printer-Compatible/dp/B00LOF1CA2/ref=sr_1_24?crid=1H73ID64FI88C&amp;dchild=1&amp;keywords=a4988+stepper+motor+driver&amp;qid=1617929080&amp;sprefix=a4988%2Caps%2C201&amp;sr=8-24", "Motor Driver")</f>
+        <v>Motor Driver</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="3">
         <v>2</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="4">
         <f>1.1*2</f>
         <v>2.2000000000000002</v>
       </c>
-      <c r="D5" t="s">
-        <v>15</v>
+      <c r="D5" s="1" t="str">
+        <f>HYPERLINK("https://www.digikey.com/en/products/detail/w%C3%BCrth-elektronik/691214110002S/11477397", "2x 3.5mm Terminal")</f>
+        <v>2x 3.5mm Terminal</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="A6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="3">
         <v>1</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="4">
         <v>1.35</v>
       </c>
-      <c r="D6" t="s">
-        <v>16</v>
+      <c r="D6" s="1" t="str">
+        <f>HYPERLINK("https://www.digikey.com/en/products/detail/w%C3%BCrth-elektronik/691214110003S/11477432","3x 3.5mm Terminal")</f>
+        <v>3x 3.5mm Terminal</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="3">
         <v>1</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="4">
         <v>0.13</v>
       </c>
-      <c r="D7" t="s">
-        <v>21</v>
+      <c r="D7" s="1" t="str">
+        <f>HYPERLINK("https://www.digikey.com/en/products/detail/w%C3%BCrth-elektronik/860240572001/5729254","10u TH Cap")</f>
+        <v>10u TH Cap</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="3">
         <v>1</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="4">
         <v>0.1</v>
       </c>
-      <c r="D8" t="s">
-        <v>20</v>
+      <c r="D8" s="1" t="str">
+        <f>HYPERLINK("https://www.digikey.com/en/products/detail/stackpole-electronics-inc/CF14JT10K0/1741265","10k TH Res")</f>
+        <v>10k TH Res</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="3">
         <v>1</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="4">
         <v>0.95</v>
       </c>
-      <c r="D9" t="s">
-        <v>17</v>
+      <c r="D9" s="1" t="str">
+        <f>HYPERLINK("https://www.sparkfun.com/products/16581","Pi Header")</f>
+        <v>Pi Header</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="3">
         <v>1</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="4">
         <v>0.2</v>
       </c>
-      <c r="D10" t="s">
-        <v>19</v>
+      <c r="D10" s="1" t="str">
+        <f>HYPERLINK("https://www.digikey.com/en/products/detail/harwin-inc/M20-9750446/3727931","4 Pin Right Angle")</f>
+        <v>4 Pin Right Angle</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="3">
         <v>2</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="4">
         <f>B11*0.65</f>
         <v>1.3</v>
       </c>
-      <c r="D11" t="s">
-        <v>18</v>
+      <c r="D11" s="1" t="str">
+        <f>HYPERLINK("https://www.digikey.com/en/products/detail/sullins-connector-solutions/PPTC081LFBN-RC/810147","2x Female Headers")</f>
+        <v>2x Female Headers</v>
       </c>
     </row>
   </sheetData>
@@ -613,7 +604,7 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D4" r:id="rId1" xr:uid="{833F4C83-DD1D-417E-AAF3-BA0EAD8871DD}"/>
+    <hyperlink ref="D4" r:id="rId1" display="https://www.amazon.com/HiLetgo-Stepstick-Stepper-Printer-Compatible/dp/B00LOF1CA2/ref=sr_1_24?crid=1H73ID64FI88C&amp;dchild=1&amp;keywords=a4988+stepper+motor+driver&amp;qid=1617929080&amp;sprefix=a4988%2Caps%2C201&amp;sr=8-24" xr:uid="{833F4C83-DD1D-417E-AAF3-BA0EAD8871DD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/hardware/pi_hat/bom/pi_hat_bom.xlsx
+++ b/hardware/pi_hat/bom/pi_hat_bom.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub Repos\canine_precise_dispenser\hardware\pi_hat\bom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BFB3131-3E7B-4DAB-8D19-495F65FA7F03}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82E3409F-A61C-4F81-9F73-6C449A9246A9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Bill of Materials - Precise Dispenser Pi HAT</t>
   </si>
@@ -51,9 +51,6 @@
     <t>Link</t>
   </si>
   <si>
-    <t>PCB</t>
-  </si>
-  <si>
     <t>A4988 Stepper Motor</t>
   </si>
   <si>
@@ -76,9 +73,6 @@
   </si>
   <si>
     <t>A4988 Female Pins</t>
-  </si>
-  <si>
-    <t>[Add OSHPark Link]</t>
   </si>
 </sst>
 </file>
@@ -143,11 +137,11 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -430,10 +424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D11"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -442,159 +436,145 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3">
-        <v>3</v>
-      </c>
-      <c r="C3" s="4">
-        <v>28.45</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="3">
-        <v>1</v>
-      </c>
-      <c r="C4" s="4">
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3">
         <v>4.6900000000000004</v>
       </c>
-      <c r="D4" s="1" t="str">
+      <c r="D3" s="1" t="str">
         <f>HYPERLINK("https://www.amazon.com/HiLetgo-Stepstick-Stepper-Printer-Compatible/dp/B00LOF1CA2/ref=sr_1_24?crid=1H73ID64FI88C&amp;dchild=1&amp;keywords=a4988+stepper+motor+driver&amp;qid=1617929080&amp;sprefix=a4988%2Caps%2C201&amp;sr=8-24", "Motor Driver")</f>
         <v>Motor Driver</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="2">
         <v>2</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C4" s="3">
         <f>1.1*2</f>
         <v>2.2000000000000002</v>
       </c>
-      <c r="D5" s="1" t="str">
+      <c r="D4" s="1" t="str">
         <f>HYPERLINK("https://www.digikey.com/en/products/detail/w%C3%BCrth-elektronik/691214110002S/11477397", "2x 3.5mm Terminal")</f>
         <v>2x 3.5mm Terminal</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="3">
-        <v>1</v>
-      </c>
-      <c r="C6" s="4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3">
         <v>1.35</v>
       </c>
-      <c r="D6" s="1" t="str">
+      <c r="D5" s="1" t="str">
         <f>HYPERLINK("https://www.digikey.com/en/products/detail/w%C3%BCrth-elektronik/691214110003S/11477432","3x 3.5mm Terminal")</f>
         <v>3x 3.5mm Terminal</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="3">
-        <v>1</v>
-      </c>
-      <c r="C7" s="4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3">
         <v>0.13</v>
       </c>
-      <c r="D7" s="1" t="str">
+      <c r="D6" s="1" t="str">
         <f>HYPERLINK("https://www.digikey.com/en/products/detail/w%C3%BCrth-elektronik/860240572001/5729254","10u TH Cap")</f>
         <v>10u TH Cap</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="3">
-        <v>1</v>
-      </c>
-      <c r="C8" s="4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
+      <c r="C7" s="3">
         <v>0.1</v>
       </c>
-      <c r="D8" s="1" t="str">
+      <c r="D7" s="1" t="str">
         <f>HYPERLINK("https://www.digikey.com/en/products/detail/stackpole-electronics-inc/CF14JT10K0/1741265","10k TH Res")</f>
         <v>10k TH Res</v>
       </c>
     </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
+      <c r="C8" s="3">
+        <v>2.29</v>
+      </c>
+      <c r="D8" s="1" t="str">
+        <f>HYPERLINK("https://www.digikey.com/en/products/detail/sullins-connector-solutions/PPTC202LFBN-RC/807240","Pi Header")</f>
+        <v>Pi Header</v>
+      </c>
+    </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="3">
-        <v>1</v>
-      </c>
-      <c r="C9" s="4">
-        <v>0.95</v>
+      <c r="B9" s="2">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.2</v>
       </c>
       <c r="D9" s="1" t="str">
-        <f>HYPERLINK("https://www.sparkfun.com/products/16581","Pi Header")</f>
-        <v>Pi Header</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="3">
-        <v>1</v>
-      </c>
-      <c r="C10" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="D10" s="1" t="str">
         <f>HYPERLINK("https://www.digikey.com/en/products/detail/harwin-inc/M20-9750446/3727931","4 Pin Right Angle")</f>
         <v>4 Pin Right Angle</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="2">
         <v>2</v>
       </c>
-      <c r="C11" s="4">
-        <f>B11*0.65</f>
+      <c r="C10" s="3">
+        <f>B10*0.65</f>
         <v>1.3</v>
       </c>
-      <c r="D11" s="1" t="str">
+      <c r="D10" s="1" t="str">
         <f>HYPERLINK("https://www.digikey.com/en/products/detail/sullins-connector-solutions/PPTC081LFBN-RC/810147","2x Female Headers")</f>
         <v>2x Female Headers</v>
       </c>
@@ -604,7 +584,7 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D4" r:id="rId1" display="https://www.amazon.com/HiLetgo-Stepstick-Stepper-Printer-Compatible/dp/B00LOF1CA2/ref=sr_1_24?crid=1H73ID64FI88C&amp;dchild=1&amp;keywords=a4988+stepper+motor+driver&amp;qid=1617929080&amp;sprefix=a4988%2Caps%2C201&amp;sr=8-24" xr:uid="{833F4C83-DD1D-417E-AAF3-BA0EAD8871DD}"/>
+    <hyperlink ref="D3" r:id="rId1" display="https://www.amazon.com/HiLetgo-Stepstick-Stepper-Printer-Compatible/dp/B00LOF1CA2/ref=sr_1_24?crid=1H73ID64FI88C&amp;dchild=1&amp;keywords=a4988+stepper+motor+driver&amp;qid=1617929080&amp;sprefix=a4988%2Caps%2C201&amp;sr=8-24" xr:uid="{833F4C83-DD1D-417E-AAF3-BA0EAD8871DD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/hardware/pi_hat/bom/pi_hat_bom.xlsx
+++ b/hardware/pi_hat/bom/pi_hat_bom.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub Repos\canine_precise_dispenser\hardware\pi_hat\bom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82E3409F-A61C-4F81-9F73-6C449A9246A9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBFF219B-4E87-45DA-AB07-5620A1FFDFBB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -427,7 +427,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
